--- a/BusinessModel/HACHIX_Business Model Canvas.xlsx
+++ b/BusinessModel/HACHIX_Business Model Canvas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hachix\repos\HACHIX_STUDY\BusinessModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\hachix\study\HACHIX_STUDY\BusinessModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B76A8F-EAA0-47D9-8E24-CF48938728D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95735455-198C-47CF-A142-02993598889C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A869E0C0-AB53-8D4B-AE88-08F19632C5F0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{A869E0C0-AB53-8D4B-AE88-08F19632C5F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Business Model Canvas" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">Order!$B$1:$W$44</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -603,17 +604,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -624,46 +655,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -773,57 +774,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -872,6 +822,57 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1263,13 +1264,13 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
     </row>
     <row r="3" spans="3:36" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="7"/>
@@ -1294,835 +1295,835 @@
       <c r="V3" s="7"/>
     </row>
     <row r="4" spans="3:36" ht="27.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="22" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="22" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="22" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="22" t="s">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="24"/>
-      <c r="AA4" s="12" t="s">
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="13"/>
+      <c r="AA4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
     </row>
     <row r="5" spans="3:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="28" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="28" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="28" t="s">
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="28" t="s">
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="30"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="19"/>
     </row>
     <row r="6" spans="3:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C6" s="28"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="30"/>
-      <c r="AA6" s="9" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="19"/>
+      <c r="AA6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="10" t="s">
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
     </row>
     <row r="7" spans="3:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="30"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="19"/>
     </row>
     <row r="8" spans="3:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="30"/>
-      <c r="AA8" s="9" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="19"/>
+      <c r="AA8" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="10" t="s">
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
     </row>
     <row r="9" spans="3:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="30"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="19"/>
     </row>
     <row r="10" spans="3:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="30"/>
-      <c r="AA10" s="9" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="19"/>
+      <c r="AA10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="10" t="s">
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
     </row>
     <row r="11" spans="3:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="30"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="19"/>
     </row>
     <row r="12" spans="3:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C12" s="28"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="30"/>
-      <c r="AA12" s="9" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="19"/>
+      <c r="AA12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="10" t="s">
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
     </row>
     <row r="13" spans="3:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="30"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="19"/>
     </row>
     <row r="14" spans="3:36" ht="27.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="25" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="25" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="30"/>
-      <c r="AA14" s="9" t="s">
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="19"/>
+      <c r="AA14" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="10" t="s">
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
     </row>
     <row r="15" spans="3:36" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="28" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="28" t="s">
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="30"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="19"/>
     </row>
     <row r="16" spans="3:36" ht="29.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="29"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="30"/>
-      <c r="AA16" s="9" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="19"/>
+      <c r="AA16" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="10" t="s">
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
     </row>
     <row r="17" spans="3:36" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="29"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="30"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="19"/>
     </row>
     <row r="18" spans="3:36" ht="29.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="30"/>
-      <c r="AA18" s="9" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="19"/>
+      <c r="AA18" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="10" t="s">
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
     </row>
     <row r="19" spans="3:36" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="29"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="30"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="19"/>
     </row>
     <row r="20" spans="3:36" ht="29.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="29"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="30"/>
-      <c r="AA20" s="9" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="19"/>
+      <c r="AA20" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="10" t="s">
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
     </row>
     <row r="21" spans="3:36" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="30"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="19"/>
     </row>
     <row r="22" spans="3:36" ht="29.1" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="30"/>
-      <c r="AA22" s="9" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="19"/>
+      <c r="AA22" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="10" t="s">
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
     </row>
     <row r="23" spans="3:36" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="33"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="22"/>
     </row>
     <row r="24" spans="3:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="25" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="27"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="16"/>
     </row>
     <row r="25" spans="3:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="28" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="30"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="19"/>
     </row>
     <row r="26" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="30"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="19"/>
     </row>
     <row r="27" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="30"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="19"/>
     </row>
     <row r="28" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C28" s="28"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="30"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="19"/>
     </row>
     <row r="29" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="30"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="19"/>
     </row>
     <row r="30" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="30"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="19"/>
     </row>
     <row r="31" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C31" s="28"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="30"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="19"/>
     </row>
     <row r="32" spans="3:36" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="30"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="19"/>
     </row>
     <row r="33" spans="3:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="33"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="22"/>
     </row>
     <row r="34" spans="3:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C34" s="7"/>
@@ -2147,98 +2148,98 @@
       <c r="V34" s="7"/>
     </row>
     <row r="35" spans="3:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="35" t="s">
+      <c r="J35" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
       <c r="P35" s="7"/>
-      <c r="Q35" s="35" t="s">
+      <c r="Q35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
     </row>
     <row r="36" spans="3:22" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="15"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="25"/>
       <c r="P36" s="7"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="15"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="25"/>
     </row>
     <row r="37" spans="3:22" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="18"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="28"/>
       <c r="P37" s="7"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="18"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="28"/>
     </row>
     <row r="38" spans="3:22" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="21"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="31"/>
       <c r="P38" s="7"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="21"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="31"/>
     </row>
     <row r="40" spans="3:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C40" s="4" t="s">
@@ -2336,6 +2337,37 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="AA22:AE22"/>
+    <mergeCell ref="AF22:AJ22"/>
+    <mergeCell ref="AA16:AE16"/>
+    <mergeCell ref="AF16:AJ16"/>
+    <mergeCell ref="AA18:AE18"/>
+    <mergeCell ref="AF18:AJ18"/>
+    <mergeCell ref="AA20:AE20"/>
+    <mergeCell ref="AF20:AJ20"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="AF10:AJ10"/>
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="AF12:AJ12"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="AF14:AJ14"/>
+    <mergeCell ref="AA4:AG4"/>
+    <mergeCell ref="AA6:AE6"/>
+    <mergeCell ref="AF6:AJ6"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AJ8"/>
+    <mergeCell ref="C36:H38"/>
+    <mergeCell ref="J36:O38"/>
+    <mergeCell ref="Q36:V38"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J23"/>
+    <mergeCell ref="C5:F23"/>
+    <mergeCell ref="K5:N23"/>
+    <mergeCell ref="S5:V23"/>
+    <mergeCell ref="O5:R13"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="O15:R23"/>
     <mergeCell ref="R2:V2"/>
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="J35:O35"/>
@@ -2349,37 +2381,6 @@
     <mergeCell ref="G4:J4"/>
     <mergeCell ref="G5:J13"/>
     <mergeCell ref="O4:R4"/>
-    <mergeCell ref="C36:H38"/>
-    <mergeCell ref="J36:O38"/>
-    <mergeCell ref="Q36:V38"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J23"/>
-    <mergeCell ref="C5:F23"/>
-    <mergeCell ref="K5:N23"/>
-    <mergeCell ref="S5:V23"/>
-    <mergeCell ref="O5:R13"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O15:R23"/>
-    <mergeCell ref="AA4:AG4"/>
-    <mergeCell ref="AA6:AE6"/>
-    <mergeCell ref="AF6:AJ6"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AJ8"/>
-    <mergeCell ref="AA10:AE10"/>
-    <mergeCell ref="AF10:AJ10"/>
-    <mergeCell ref="AA12:AE12"/>
-    <mergeCell ref="AF12:AJ12"/>
-    <mergeCell ref="AA14:AE14"/>
-    <mergeCell ref="AF14:AJ14"/>
-    <mergeCell ref="AA22:AE22"/>
-    <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="AA16:AE16"/>
-    <mergeCell ref="AF16:AJ16"/>
-    <mergeCell ref="AA18:AE18"/>
-    <mergeCell ref="AF18:AJ18"/>
-    <mergeCell ref="AA20:AE20"/>
-    <mergeCell ref="AF20:AJ20"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <hyperlinks>
@@ -3467,11 +3468,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="O3:T3"/>
-    <mergeCell ref="I4:N12"/>
-    <mergeCell ref="I13:N13"/>
     <mergeCell ref="C25:G27"/>
     <mergeCell ref="J25:N27"/>
     <mergeCell ref="P25:T27"/>
@@ -3481,6 +3477,11 @@
     <mergeCell ref="J24:N24"/>
     <mergeCell ref="P24:T24"/>
     <mergeCell ref="I14:N22"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:N3"/>
+    <mergeCell ref="O3:T3"/>
+    <mergeCell ref="I4:N12"/>
+    <mergeCell ref="I13:N13"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3563,32 +3564,32 @@
     <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="84" t="s">
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="72" t="s">
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="74"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="96"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -3596,26 +3597,26 @@
     <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="80"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="101"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="102"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -3623,26 +3624,26 @@
     <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="80"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="100"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="102"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
@@ -3650,26 +3651,26 @@
     <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="80"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="100"/>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="101"/>
+      <c r="R6" s="101"/>
+      <c r="S6" s="101"/>
+      <c r="T6" s="101"/>
+      <c r="U6" s="101"/>
+      <c r="V6" s="102"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
@@ -3677,26 +3678,26 @@
     <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="79"/>
-      <c r="Q7" s="79"/>
-      <c r="R7" s="79"/>
-      <c r="S7" s="79"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="80"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="102"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -3704,26 +3705,26 @@
     <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="80"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="100"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="101"/>
+      <c r="U8" s="101"/>
+      <c r="V8" s="102"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
@@ -3731,26 +3732,26 @@
     <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="80"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="107"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="100"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="101"/>
+      <c r="R9" s="101"/>
+      <c r="S9" s="101"/>
+      <c r="T9" s="101"/>
+      <c r="U9" s="101"/>
+      <c r="V9" s="102"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -3758,26 +3759,26 @@
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="79"/>
-      <c r="Q10" s="79"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="80"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="100"/>
+      <c r="P10" s="101"/>
+      <c r="Q10" s="101"/>
+      <c r="R10" s="101"/>
+      <c r="S10" s="101"/>
+      <c r="T10" s="101"/>
+      <c r="U10" s="101"/>
+      <c r="V10" s="102"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -3785,26 +3786,26 @@
     <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="80"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="107"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="102"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
@@ -3812,26 +3813,26 @@
     <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="83"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="105"/>
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
@@ -3839,30 +3840,30 @@
     <row r="13" spans="1:25" ht="15.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="75" t="s">
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="77"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="99"/>
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
@@ -3870,26 +3871,26 @@
     <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="79"/>
-      <c r="Q14" s="79"/>
-      <c r="R14" s="79"/>
-      <c r="S14" s="79"/>
-      <c r="T14" s="79"/>
-      <c r="U14" s="79"/>
-      <c r="V14" s="80"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="101"/>
+      <c r="T14" s="101"/>
+      <c r="U14" s="101"/>
+      <c r="V14" s="102"/>
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
@@ -3897,26 +3898,26 @@
     <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="79"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="80"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101"/>
+      <c r="S15" s="101"/>
+      <c r="T15" s="101"/>
+      <c r="U15" s="101"/>
+      <c r="V15" s="102"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
@@ -3924,26 +3925,26 @@
     <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="80"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
+      <c r="S16" s="101"/>
+      <c r="T16" s="101"/>
+      <c r="U16" s="101"/>
+      <c r="V16" s="102"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
@@ -3951,26 +3952,26 @@
     <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="80"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
+      <c r="S17" s="101"/>
+      <c r="T17" s="101"/>
+      <c r="U17" s="101"/>
+      <c r="V17" s="102"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
@@ -3978,26 +3979,26 @@
     <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="78"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="80"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="108"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="101"/>
+      <c r="S18" s="101"/>
+      <c r="T18" s="101"/>
+      <c r="U18" s="101"/>
+      <c r="V18" s="102"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
@@ -4005,26 +4006,26 @@
     <row r="19" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="80"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="102"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
@@ -4032,26 +4033,26 @@
     <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="78"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="80"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="107"/>
+      <c r="N20" s="108"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="101"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="102"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
@@ -4059,26 +4060,26 @@
     <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="80"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="108"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="101"/>
+      <c r="T21" s="101"/>
+      <c r="U21" s="101"/>
+      <c r="V21" s="102"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
@@ -4086,26 +4087,26 @@
     <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="83"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="105"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
@@ -4113,30 +4114,30 @@
     <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="101" t="s">
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="T23" s="99"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="100"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="83"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
@@ -4144,26 +4145,26 @@
     <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="103"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="103"/>
-      <c r="O24" s="103"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="108"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="91"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
@@ -4171,26 +4172,26 @@
     <row r="25" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="103"/>
-      <c r="K25" s="103"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="103"/>
-      <c r="O25" s="103"/>
-      <c r="P25" s="103"/>
-      <c r="Q25" s="103"/>
-      <c r="R25" s="103"/>
-      <c r="S25" s="103"/>
-      <c r="T25" s="103"/>
-      <c r="U25" s="103"/>
-      <c r="V25" s="108"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="91"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
@@ -4198,26 +4199,26 @@
     <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="103"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="103"/>
-      <c r="O26" s="103"/>
-      <c r="P26" s="103"/>
-      <c r="Q26" s="103"/>
-      <c r="R26" s="103"/>
-      <c r="S26" s="103"/>
-      <c r="T26" s="103"/>
-      <c r="U26" s="103"/>
-      <c r="V26" s="108"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="91"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
@@ -4225,26 +4226,26 @@
     <row r="27" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="103"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="103"/>
-      <c r="O27" s="103"/>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="108"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="91"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
@@ -4252,26 +4253,26 @@
     <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="103"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="103"/>
-      <c r="O28" s="103"/>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="103"/>
-      <c r="V28" s="108"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="91"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
@@ -4279,26 +4280,26 @@
     <row r="29" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="103"/>
-      <c r="V29" s="108"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="91"/>
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
@@ -4306,26 +4307,26 @@
     <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="103"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="103"/>
-      <c r="O30" s="103"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="103"/>
-      <c r="R30" s="103"/>
-      <c r="S30" s="103"/>
-      <c r="T30" s="103"/>
-      <c r="U30" s="103"/>
-      <c r="V30" s="108"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86"/>
+      <c r="Q30" s="86"/>
+      <c r="R30" s="86"/>
+      <c r="S30" s="86"/>
+      <c r="T30" s="86"/>
+      <c r="U30" s="86"/>
+      <c r="V30" s="91"/>
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
@@ -4333,26 +4334,26 @@
     <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="103"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="103"/>
-      <c r="O31" s="103"/>
-      <c r="P31" s="103"/>
-      <c r="Q31" s="103"/>
-      <c r="R31" s="103"/>
-      <c r="S31" s="103"/>
-      <c r="T31" s="103"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="108"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="91"/>
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
@@ -4360,26 +4361,26 @@
     <row r="32" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="106"/>
-      <c r="P32" s="106"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="106"/>
-      <c r="S32" s="106"/>
-      <c r="T32" s="106"/>
-      <c r="U32" s="106"/>
-      <c r="V32" s="109"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="89"/>
+      <c r="O32" s="89"/>
+      <c r="P32" s="89"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="92"/>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
@@ -4414,32 +4415,32 @@
     <row r="34" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="110" t="s">
+      <c r="C34" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="110"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="110"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="110" t="s">
+      <c r="J34" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="110"/>
-      <c r="N34" s="110"/>
-      <c r="O34" s="110"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
+      <c r="O34" s="93"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="110" t="s">
+      <c r="Q34" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="R34" s="110"/>
-      <c r="S34" s="110"/>
-      <c r="T34" s="110"/>
-      <c r="U34" s="110"/>
-      <c r="V34" s="110"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="93"/>
+      <c r="T34" s="93"/>
+      <c r="U34" s="93"/>
+      <c r="V34" s="93"/>
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
@@ -4447,26 +4448,26 @@
     <row r="35" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="90"/>
-      <c r="H35" s="91"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="74"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="90"/>
-      <c r="L35" s="90"/>
-      <c r="M35" s="90"/>
-      <c r="N35" s="90"/>
-      <c r="O35" s="91"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="74"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="89"/>
-      <c r="R35" s="90"/>
-      <c r="S35" s="90"/>
-      <c r="T35" s="90"/>
-      <c r="U35" s="90"/>
-      <c r="V35" s="91"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="73"/>
+      <c r="V35" s="74"/>
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
@@ -4474,26 +4475,26 @@
     <row r="36" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="94"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="77"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="93"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="94"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="77"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="93"/>
-      <c r="S36" s="93"/>
-      <c r="T36" s="93"/>
-      <c r="U36" s="93"/>
-      <c r="V36" s="94"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="77"/>
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
@@ -4501,32 +4502,42 @@
     <row r="37" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="97"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="80"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="97"/>
+      <c r="J37" s="78"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="80"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="96"/>
-      <c r="T37" s="96"/>
-      <c r="U37" s="96"/>
-      <c r="V37" s="97"/>
+      <c r="Q37" s="78"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="80"/>
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J22"/>
+    <mergeCell ref="C4:J12"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="K4:N22"/>
+    <mergeCell ref="O4:V12"/>
+    <mergeCell ref="O13:V13"/>
+    <mergeCell ref="O14:V22"/>
     <mergeCell ref="C35:H37"/>
     <mergeCell ref="J35:O37"/>
     <mergeCell ref="Q35:V37"/>
@@ -4537,16 +4548,6 @@
     <mergeCell ref="C34:H34"/>
     <mergeCell ref="J34:O34"/>
     <mergeCell ref="Q34:V34"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J22"/>
-    <mergeCell ref="C4:J12"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="K4:N22"/>
-    <mergeCell ref="O4:V12"/>
-    <mergeCell ref="O13:V13"/>
-    <mergeCell ref="O14:V22"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4562,7 +4563,7 @@
   <dimension ref="C1:AJ43"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25:V33"/>
+      <selection activeCell="S5" sqref="S5:V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -4613,13 +4614,13 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="34" t="s">
+      <c r="R2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
     </row>
     <row r="3" spans="3:36" ht="6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="7"/>
@@ -4644,45 +4645,45 @@
       <c r="V3" s="7"/>
     </row>
     <row r="4" spans="3:36" ht="27.95" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="22" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="22" t="s">
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="22" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="22" t="s">
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="24"/>
-      <c r="AA4" s="12" t="s">
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="13"/>
+      <c r="AA4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
     </row>
     <row r="5" spans="3:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="111" t="s">
@@ -4737,20 +4738,20 @@
       <c r="T6" s="112"/>
       <c r="U6" s="112"/>
       <c r="V6" s="113"/>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="10" t="s">
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="33"/>
+      <c r="AE6" s="33"/>
+      <c r="AF6" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="35"/>
     </row>
     <row r="7" spans="3:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C7" s="111"/>
@@ -4795,20 +4796,20 @@
       <c r="T8" s="112"/>
       <c r="U8" s="112"/>
       <c r="V8" s="113"/>
-      <c r="AA8" s="9" t="s">
+      <c r="AA8" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="10" t="s">
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
     </row>
     <row r="9" spans="3:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C9" s="111"/>
@@ -4853,20 +4854,20 @@
       <c r="T10" s="112"/>
       <c r="U10" s="112"/>
       <c r="V10" s="113"/>
-      <c r="AA10" s="9" t="s">
+      <c r="AA10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="10" t="s">
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
     </row>
     <row r="11" spans="3:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C11" s="111"/>
@@ -4911,20 +4912,20 @@
       <c r="T12" s="112"/>
       <c r="U12" s="112"/>
       <c r="V12" s="113"/>
-      <c r="AA12" s="9" t="s">
+      <c r="AA12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="10" t="s">
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="33"/>
+      <c r="AD12" s="33"/>
+      <c r="AE12" s="33"/>
+      <c r="AF12" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
     </row>
     <row r="13" spans="3:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C13" s="111"/>
@@ -4953,40 +4954,40 @@
       <c r="D14" s="112"/>
       <c r="E14" s="112"/>
       <c r="F14" s="113"/>
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="111"/>
       <c r="L14" s="112"/>
       <c r="M14" s="112"/>
       <c r="N14" s="113"/>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="27"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="16"/>
       <c r="S14" s="111"/>
       <c r="T14" s="112"/>
       <c r="U14" s="112"/>
       <c r="V14" s="113"/>
-      <c r="AA14" s="9" t="s">
+      <c r="AA14" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="10" t="s">
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="33"/>
+      <c r="AD14" s="33"/>
+      <c r="AE14" s="33"/>
+      <c r="AF14" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
     </row>
     <row r="15" spans="3:36" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="111"/>
@@ -5035,20 +5036,20 @@
       <c r="T16" s="112"/>
       <c r="U16" s="112"/>
       <c r="V16" s="113"/>
-      <c r="AA16" s="9" t="s">
+      <c r="AA16" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="10" t="s">
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="33"/>
+      <c r="AF16" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
     </row>
     <row r="17" spans="3:36" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C17" s="111"/>
@@ -5093,20 +5094,20 @@
       <c r="T18" s="112"/>
       <c r="U18" s="112"/>
       <c r="V18" s="113"/>
-      <c r="AA18" s="9" t="s">
+      <c r="AA18" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="10" t="s">
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="33"/>
+      <c r="AE18" s="33"/>
+      <c r="AF18" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
     </row>
     <row r="19" spans="3:36" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" s="111"/>
@@ -5151,20 +5152,20 @@
       <c r="T20" s="112"/>
       <c r="U20" s="112"/>
       <c r="V20" s="113"/>
-      <c r="AA20" s="9" t="s">
+      <c r="AA20" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="10" t="s">
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
     </row>
     <row r="21" spans="3:36" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C21" s="111"/>
@@ -5209,20 +5210,20 @@
       <c r="T22" s="112"/>
       <c r="U22" s="112"/>
       <c r="V22" s="113"/>
-      <c r="AA22" s="9" t="s">
+      <c r="AA22" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="10" t="s">
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
     </row>
     <row r="23" spans="3:36" ht="29.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="114"/>
@@ -5247,30 +5248,30 @@
       <c r="V23" s="116"/>
     </row>
     <row r="24" spans="3:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="25" t="s">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="27"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="16"/>
     </row>
     <row r="25" spans="3:36" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" s="111" t="s">
@@ -5497,98 +5498,98 @@
       <c r="V34" s="7"/>
     </row>
     <row r="35" spans="3:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="35" t="s">
+      <c r="J35" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
       <c r="P35" s="7"/>
-      <c r="Q35" s="35" t="s">
+      <c r="Q35" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
     </row>
     <row r="36" spans="3:22" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="15"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="7"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="15"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="25"/>
       <c r="P36" s="7"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="15"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="25"/>
     </row>
     <row r="37" spans="3:22" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="16"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="7"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="18"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="28"/>
       <c r="P37" s="7"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="18"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="28"/>
     </row>
     <row r="38" spans="3:22" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C38" s="19"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31"/>
       <c r="I38" s="7"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="21"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="31"/>
       <c r="P38" s="7"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="21"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
+      <c r="T38" s="30"/>
+      <c r="U38" s="30"/>
+      <c r="V38" s="31"/>
     </row>
     <row r="40" spans="3:22" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C40" s="4" t="s">
@@ -5686,6 +5687,40 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="R2:V2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="AA4:AG4"/>
+    <mergeCell ref="C5:F23"/>
+    <mergeCell ref="G5:J13"/>
+    <mergeCell ref="K5:N23"/>
+    <mergeCell ref="O5:R13"/>
+    <mergeCell ref="S5:V23"/>
+    <mergeCell ref="AA6:AE6"/>
+    <mergeCell ref="AF6:AJ6"/>
+    <mergeCell ref="AA8:AE8"/>
+    <mergeCell ref="AF8:AJ8"/>
+    <mergeCell ref="AA10:AE10"/>
+    <mergeCell ref="AF10:AJ10"/>
+    <mergeCell ref="AA12:AE12"/>
+    <mergeCell ref="AF12:AJ12"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="AA14:AE14"/>
+    <mergeCell ref="AF14:AJ14"/>
+    <mergeCell ref="G15:J23"/>
+    <mergeCell ref="O15:R23"/>
+    <mergeCell ref="AA16:AE16"/>
+    <mergeCell ref="AF16:AJ16"/>
+    <mergeCell ref="AA18:AE18"/>
+    <mergeCell ref="AF18:AJ18"/>
+    <mergeCell ref="AA20:AE20"/>
+    <mergeCell ref="AF20:AJ20"/>
+    <mergeCell ref="AA22:AE22"/>
+    <mergeCell ref="AF22:AJ22"/>
     <mergeCell ref="C36:H38"/>
     <mergeCell ref="J36:O38"/>
     <mergeCell ref="Q36:V38"/>
@@ -5696,40 +5731,6 @@
     <mergeCell ref="C35:H35"/>
     <mergeCell ref="J35:O35"/>
     <mergeCell ref="Q35:V35"/>
-    <mergeCell ref="G15:J23"/>
-    <mergeCell ref="O15:R23"/>
-    <mergeCell ref="AA16:AE16"/>
-    <mergeCell ref="AF16:AJ16"/>
-    <mergeCell ref="AA18:AE18"/>
-    <mergeCell ref="AF18:AJ18"/>
-    <mergeCell ref="AA20:AE20"/>
-    <mergeCell ref="AF20:AJ20"/>
-    <mergeCell ref="AA22:AE22"/>
-    <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="AA10:AE10"/>
-    <mergeCell ref="AF10:AJ10"/>
-    <mergeCell ref="AA12:AE12"/>
-    <mergeCell ref="AF12:AJ12"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="AA14:AE14"/>
-    <mergeCell ref="AF14:AJ14"/>
-    <mergeCell ref="AA4:AG4"/>
-    <mergeCell ref="C5:F23"/>
-    <mergeCell ref="G5:J13"/>
-    <mergeCell ref="K5:N23"/>
-    <mergeCell ref="O5:R13"/>
-    <mergeCell ref="S5:V23"/>
-    <mergeCell ref="AA6:AE6"/>
-    <mergeCell ref="AF6:AJ6"/>
-    <mergeCell ref="AA8:AE8"/>
-    <mergeCell ref="AF8:AJ8"/>
-    <mergeCell ref="R2:V2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
   </mergeCells>
   <phoneticPr fontId="12"/>
   <hyperlinks>
